--- a/spreadsheets/new/GSE116470.0.xlsx
+++ b/spreadsheets/new/GSE116470.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57148E5E-85EF-4D46-9470-602F21318004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30060" windowHeight="15960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="1494">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -4501,13 +4507,16 @@
   </si>
   <si>
     <t>Thalamus</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4544,6 +4553,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4590,7 +4607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4622,9 +4639,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4656,6 +4691,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4831,75 +4884,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5078,7 +5127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5257,7 +5306,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5415,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -5594,12 +5643,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -5619,7 +5668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5639,7 +5688,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5659,7 +5708,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -5679,7 +5728,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5699,7 +5748,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -5719,7 +5768,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>228</v>
       </c>
@@ -5739,7 +5788,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -5759,7 +5808,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -5779,7 +5828,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -5799,7 +5848,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>240</v>
       </c>
@@ -5819,7 +5868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>243</v>
       </c>
@@ -5839,7 +5888,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5859,7 +5908,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -5879,7 +5928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -5899,7 +5948,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -5919,7 +5968,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>258</v>
       </c>
@@ -5939,7 +5988,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>261</v>
       </c>
@@ -5959,7 +6008,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>264</v>
       </c>
@@ -5979,7 +6028,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>267</v>
       </c>
@@ -5999,7 +6048,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>270</v>
       </c>
@@ -6019,7 +6068,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>273</v>
       </c>
@@ -6039,7 +6088,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>276</v>
       </c>
@@ -6059,7 +6108,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -6079,7 +6128,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>282</v>
       </c>
@@ -6099,7 +6148,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>285</v>
       </c>
@@ -6119,7 +6168,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>288</v>
       </c>
@@ -6139,7 +6188,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>291</v>
       </c>
@@ -6159,7 +6208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -6179,7 +6228,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -6199,7 +6248,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>300</v>
       </c>
@@ -6219,7 +6268,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -6239,7 +6288,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>306</v>
       </c>
@@ -6259,7 +6308,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>309</v>
       </c>
@@ -6279,7 +6328,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>312</v>
       </c>
@@ -6299,7 +6348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>315</v>
       </c>
@@ -6319,7 +6368,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -6339,7 +6388,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>321</v>
       </c>
@@ -6359,7 +6408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -6379,7 +6428,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>327</v>
       </c>
@@ -6399,7 +6448,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>330</v>
       </c>
@@ -6419,7 +6468,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>333</v>
       </c>
@@ -6439,7 +6488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -6459,7 +6508,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -6479,7 +6528,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>342</v>
       </c>
@@ -6499,7 +6548,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -6519,7 +6568,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -6539,7 +6588,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>351</v>
       </c>
@@ -6559,7 +6608,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>354</v>
       </c>
@@ -6579,7 +6628,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>357</v>
       </c>
@@ -6599,7 +6648,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>360</v>
       </c>
@@ -6619,7 +6668,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>363</v>
       </c>
@@ -6639,7 +6688,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>366</v>
       </c>
@@ -6659,7 +6708,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>369</v>
       </c>
@@ -6679,7 +6728,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>372</v>
       </c>
@@ -6699,7 +6748,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>375</v>
       </c>
@@ -6719,7 +6768,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -6739,7 +6788,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>381</v>
       </c>
@@ -6759,7 +6808,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>384</v>
       </c>
@@ -6779,7 +6828,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -6799,7 +6848,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>390</v>
       </c>
@@ -6819,7 +6868,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>393</v>
       </c>
@@ -6839,7 +6888,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>396</v>
       </c>
@@ -6859,7 +6908,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>399</v>
       </c>
@@ -6879,7 +6928,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>402</v>
       </c>
@@ -6899,7 +6948,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>405</v>
       </c>
@@ -6919,7 +6968,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>408</v>
       </c>
@@ -6939,7 +6988,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>411</v>
       </c>
@@ -6959,7 +7008,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>414</v>
       </c>
@@ -6979,7 +7028,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>417</v>
       </c>
@@ -6999,7 +7048,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>420</v>
       </c>
@@ -7019,7 +7068,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>423</v>
       </c>
@@ -7039,7 +7088,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>426</v>
       </c>
@@ -7059,7 +7108,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>429</v>
       </c>
@@ -7079,7 +7128,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -7099,7 +7148,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>435</v>
       </c>
@@ -7119,7 +7168,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>438</v>
       </c>
@@ -7139,7 +7188,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>441</v>
       </c>
@@ -7159,7 +7208,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>444</v>
       </c>
@@ -7179,7 +7228,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>447</v>
       </c>
@@ -7199,7 +7248,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>450</v>
       </c>
@@ -7219,7 +7268,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>453</v>
       </c>
@@ -7239,7 +7288,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>456</v>
       </c>
@@ -7259,7 +7308,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>459</v>
       </c>
@@ -7279,7 +7328,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>462</v>
       </c>
@@ -7299,7 +7348,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>465</v>
       </c>
@@ -7319,7 +7368,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>468</v>
       </c>
@@ -7339,7 +7388,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>471</v>
       </c>
@@ -7359,7 +7408,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>474</v>
       </c>
@@ -7379,7 +7428,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>477</v>
       </c>
@@ -7399,7 +7448,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>480</v>
       </c>
@@ -7419,7 +7468,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>483</v>
       </c>
@@ -7439,7 +7488,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>486</v>
       </c>
@@ -7459,7 +7508,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>489</v>
       </c>
@@ -7479,7 +7528,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>492</v>
       </c>
@@ -7499,7 +7548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>495</v>
       </c>
@@ -7519,7 +7568,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>498</v>
       </c>
@@ -7539,7 +7588,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>501</v>
       </c>
@@ -7559,7 +7608,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>504</v>
       </c>
@@ -7579,7 +7628,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>507</v>
       </c>
@@ -7599,7 +7648,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>510</v>
       </c>
@@ -7619,7 +7668,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>513</v>
       </c>
@@ -7639,7 +7688,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>516</v>
       </c>
@@ -7659,7 +7708,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>519</v>
       </c>
@@ -7685,93 +7734,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>522</v>
       </c>
@@ -8004,7 +8051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -8237,7 +8284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -8452,7 +8499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>626</v>
       </c>
@@ -8685,12 +8732,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>687</v>
       </c>
@@ -8713,7 +8760,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>692</v>
       </c>
@@ -8736,7 +8783,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>693</v>
       </c>
@@ -8759,7 +8806,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>694</v>
       </c>
@@ -8782,7 +8829,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>695</v>
       </c>
@@ -8805,7 +8852,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>697</v>
       </c>
@@ -8828,7 +8875,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>698</v>
       </c>
@@ -8851,7 +8898,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -8874,7 +8921,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>701</v>
       </c>
@@ -8897,7 +8944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>702</v>
       </c>
@@ -8920,7 +8967,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>703</v>
       </c>
@@ -8949,67 +8996,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>704</v>
       </c>
@@ -9164,7 +9209,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -9319,7 +9364,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -9468,7 +9513,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>805</v>
       </c>
@@ -9623,12 +9668,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>856</v>
       </c>
@@ -9645,25 +9690,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="293.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1215.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="293.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1215.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>859</v>
       </c>
@@ -9692,7 +9736,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>868</v>
       </c>
@@ -9721,7 +9765,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>877</v>
       </c>
@@ -9750,7 +9794,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>886</v>
       </c>
@@ -9779,12 +9823,12 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>895</v>
       </c>
@@ -9810,28 +9854,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>901</v>
       </c>
@@ -9869,7 +9913,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>913</v>
       </c>
@@ -9907,7 +9951,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>923</v>
       </c>
@@ -9945,7 +9989,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>934</v>
       </c>
@@ -9983,12 +10027,12 @@
         <v>945</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>946</v>
       </c>
@@ -10014,21 +10058,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>952</v>
       </c>
@@ -10045,7 +10089,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>956</v>
       </c>
@@ -10062,7 +10106,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>961</v>
       </c>
@@ -10079,7 +10123,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>966</v>
       </c>
@@ -10096,12 +10140,12 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>971</v>
       </c>
@@ -10112,46 +10156,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>972</v>
       </c>
@@ -10243,7 +10285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>984</v>
       </c>
@@ -10335,7 +10377,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>993</v>
       </c>
@@ -10415,7 +10457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1003</v>
       </c>
@@ -10507,12 +10549,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1015</v>
       </c>
@@ -10535,7 +10577,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1020</v>
       </c>
@@ -10558,7 +10600,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1022</v>
       </c>
@@ -10581,7 +10623,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1024</v>
       </c>
@@ -10604,7 +10646,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1025</v>
       </c>
@@ -10627,7 +10669,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1027</v>
       </c>
@@ -10650,7 +10692,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1028</v>
       </c>
@@ -10673,7 +10715,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1030</v>
       </c>
@@ -10696,7 +10738,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1031</v>
       </c>
@@ -10719,7 +10761,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1033</v>
       </c>
@@ -10742,7 +10784,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1034</v>
       </c>
@@ -10765,7 +10807,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1036</v>
       </c>
@@ -10788,7 +10830,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1037</v>
       </c>
@@ -10811,7 +10853,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1039</v>
       </c>
@@ -10834,7 +10876,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1040</v>
       </c>
@@ -10857,7 +10899,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1042</v>
       </c>
@@ -10880,7 +10922,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1043</v>
       </c>
@@ -10903,7 +10945,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1045</v>
       </c>
@@ -10926,7 +10968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1046</v>
       </c>
@@ -10949,7 +10991,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1048</v>
       </c>
@@ -10972,7 +11014,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1049</v>
       </c>
@@ -10995,7 +11037,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1051</v>
       </c>
@@ -11018,7 +11060,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1052</v>
       </c>
@@ -11041,7 +11083,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1054</v>
       </c>
@@ -11064,7 +11106,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1055</v>
       </c>
@@ -11087,7 +11129,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1057</v>
       </c>
@@ -11110,7 +11152,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1058</v>
       </c>
@@ -11133,7 +11175,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1060</v>
       </c>
@@ -11156,7 +11198,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1061</v>
       </c>
@@ -11179,7 +11221,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1063</v>
       </c>
@@ -11202,7 +11244,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1064</v>
       </c>
@@ -11225,7 +11267,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1066</v>
       </c>
@@ -11248,7 +11290,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1067</v>
       </c>
@@ -11271,7 +11313,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1069</v>
       </c>
@@ -11294,7 +11336,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1070</v>
       </c>
@@ -11317,7 +11359,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1072</v>
       </c>
@@ -11340,7 +11382,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1073</v>
       </c>
@@ -11363,7 +11405,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1075</v>
       </c>
@@ -11386,7 +11428,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1076</v>
       </c>
@@ -11409,7 +11451,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1078</v>
       </c>
@@ -11432,7 +11474,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1079</v>
       </c>
@@ -11455,7 +11497,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1081</v>
       </c>
@@ -11478,7 +11520,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1082</v>
       </c>
@@ -11501,7 +11543,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1084</v>
       </c>
@@ -11524,7 +11566,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1085</v>
       </c>
@@ -11547,7 +11589,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1087</v>
       </c>
@@ -11570,7 +11612,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1088</v>
       </c>
@@ -11593,7 +11635,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1090</v>
       </c>
@@ -11616,7 +11658,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1091</v>
       </c>
@@ -11639,7 +11681,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1093</v>
       </c>
@@ -11662,7 +11704,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1094</v>
       </c>
@@ -11685,7 +11727,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1096</v>
       </c>
@@ -11708,7 +11750,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1097</v>
       </c>
@@ -11731,7 +11773,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1099</v>
       </c>
@@ -11754,7 +11796,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1100</v>
       </c>
@@ -11777,7 +11819,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1102</v>
       </c>
@@ -11800,7 +11842,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1103</v>
       </c>
@@ -11823,7 +11865,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1105</v>
       </c>
@@ -11846,7 +11888,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1106</v>
       </c>
@@ -11869,7 +11911,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1108</v>
       </c>
@@ -11892,7 +11934,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1109</v>
       </c>
@@ -11915,7 +11957,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1111</v>
       </c>
@@ -11938,7 +11980,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1112</v>
       </c>
@@ -11961,7 +12003,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1114</v>
       </c>
@@ -11984,7 +12026,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1115</v>
       </c>
@@ -12007,7 +12049,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1117</v>
       </c>
@@ -12030,7 +12072,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1118</v>
       </c>
@@ -12053,7 +12095,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1120</v>
       </c>
@@ -12076,7 +12118,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1121</v>
       </c>
@@ -12099,7 +12141,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1123</v>
       </c>
@@ -12122,7 +12164,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1124</v>
       </c>
@@ -12145,7 +12187,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1126</v>
       </c>
@@ -12168,7 +12210,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1127</v>
       </c>
@@ -12191,7 +12233,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1129</v>
       </c>
@@ -12214,7 +12256,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1130</v>
       </c>
@@ -12237,7 +12279,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1132</v>
       </c>
@@ -12260,7 +12302,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1133</v>
       </c>
@@ -12283,7 +12325,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1135</v>
       </c>
@@ -12306,7 +12348,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1136</v>
       </c>
@@ -12329,7 +12371,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1138</v>
       </c>
@@ -12352,7 +12394,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1139</v>
       </c>
@@ -12375,7 +12417,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1141</v>
       </c>
@@ -12398,7 +12440,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1142</v>
       </c>
@@ -12421,7 +12463,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1144</v>
       </c>
@@ -12444,7 +12486,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1145</v>
       </c>
@@ -12467,7 +12509,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1147</v>
       </c>
@@ -12490,7 +12532,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1148</v>
       </c>
@@ -12513,7 +12555,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1150</v>
       </c>
@@ -12536,7 +12578,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1151</v>
       </c>
@@ -12559,7 +12601,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1153</v>
       </c>
@@ -12582,7 +12624,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1154</v>
       </c>
@@ -12605,7 +12647,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1156</v>
       </c>
@@ -12628,7 +12670,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1157</v>
       </c>
@@ -12651,7 +12693,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1159</v>
       </c>
@@ -12674,7 +12716,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1160</v>
       </c>
@@ -12697,7 +12739,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1162</v>
       </c>
@@ -12720,7 +12762,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1163</v>
       </c>
@@ -12743,7 +12785,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1165</v>
       </c>
@@ -12766,7 +12808,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1166</v>
       </c>
@@ -12789,7 +12831,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1168</v>
       </c>
@@ -12812,7 +12854,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1169</v>
       </c>
@@ -12835,7 +12877,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1171</v>
       </c>
@@ -12858,7 +12900,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1172</v>
       </c>
@@ -12881,7 +12923,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1174</v>
       </c>
@@ -12904,7 +12946,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1175</v>
       </c>
@@ -12927,7 +12969,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1177</v>
       </c>
@@ -12950,7 +12992,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1178</v>
       </c>
@@ -12973,7 +13015,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1180</v>
       </c>
@@ -12996,7 +13038,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1181</v>
       </c>
@@ -13019,7 +13061,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1183</v>
       </c>
@@ -13042,7 +13084,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1184</v>
       </c>
@@ -13065,7 +13107,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1186</v>
       </c>
@@ -13088,7 +13130,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1187</v>
       </c>
@@ -13111,7 +13153,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1189</v>
       </c>
@@ -13134,7 +13176,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1190</v>
       </c>
@@ -13157,7 +13199,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1192</v>
       </c>
@@ -13180,7 +13222,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1193</v>
       </c>
@@ -13203,7 +13245,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1195</v>
       </c>
@@ -13226,7 +13268,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1196</v>
       </c>
@@ -13249,7 +13291,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1198</v>
       </c>
@@ -13272,7 +13314,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1199</v>
       </c>
@@ -13295,7 +13337,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1201</v>
       </c>
@@ -13318,7 +13360,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1202</v>
       </c>
@@ -13341,7 +13383,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1204</v>
       </c>
@@ -13364,7 +13406,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1205</v>
       </c>
@@ -13387,7 +13429,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1207</v>
       </c>
@@ -13410,7 +13452,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1208</v>
       </c>
@@ -13433,7 +13475,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1210</v>
       </c>
@@ -13456,7 +13498,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1211</v>
       </c>
@@ -13479,7 +13521,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1213</v>
       </c>
@@ -13502,7 +13544,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1214</v>
       </c>
@@ -13525,7 +13567,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1216</v>
       </c>
@@ -13548,7 +13590,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1217</v>
       </c>
@@ -13571,7 +13613,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1219</v>
       </c>
@@ -13594,7 +13636,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1220</v>
       </c>
@@ -13617,7 +13659,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1222</v>
       </c>
@@ -13640,7 +13682,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1223</v>
       </c>
@@ -13663,7 +13705,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1225</v>
       </c>
@@ -13686,7 +13728,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1226</v>
       </c>
@@ -13709,7 +13751,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1228</v>
       </c>
@@ -13732,7 +13774,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1229</v>
       </c>
@@ -13755,7 +13797,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1231</v>
       </c>
@@ -13778,7 +13820,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1232</v>
       </c>
@@ -13801,7 +13843,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1234</v>
       </c>
@@ -13824,7 +13866,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1235</v>
       </c>
@@ -13847,7 +13889,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1237</v>
       </c>
@@ -13870,7 +13912,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1238</v>
       </c>
@@ -13893,7 +13935,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1240</v>
       </c>
@@ -13916,7 +13958,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1241</v>
       </c>
@@ -13939,7 +13981,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1243</v>
       </c>
@@ -13962,7 +14004,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1244</v>
       </c>
@@ -13985,7 +14027,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1246</v>
       </c>
@@ -14008,7 +14050,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1247</v>
       </c>
@@ -14031,7 +14073,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1249</v>
       </c>
@@ -14054,7 +14096,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1250</v>
       </c>
@@ -14077,7 +14119,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1252</v>
       </c>
@@ -14100,7 +14142,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1253</v>
       </c>
@@ -14123,7 +14165,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1255</v>
       </c>
@@ -14146,7 +14188,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1256</v>
       </c>
@@ -14169,7 +14211,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1258</v>
       </c>
@@ -14192,7 +14234,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1259</v>
       </c>
@@ -14215,7 +14257,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1261</v>
       </c>
@@ -14238,7 +14280,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1262</v>
       </c>
@@ -14261,7 +14303,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1264</v>
       </c>
@@ -14284,7 +14326,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1265</v>
       </c>
@@ -14307,7 +14349,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1267</v>
       </c>
@@ -14330,7 +14372,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1268</v>
       </c>
@@ -14353,7 +14395,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1270</v>
       </c>
@@ -14376,7 +14418,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1271</v>
       </c>
@@ -14399,7 +14441,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1273</v>
       </c>
@@ -14422,7 +14464,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1274</v>
       </c>
@@ -14445,7 +14487,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1276</v>
       </c>
@@ -14468,7 +14510,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1277</v>
       </c>
@@ -14491,7 +14533,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1279</v>
       </c>
@@ -14514,7 +14556,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1280</v>
       </c>
@@ -14537,7 +14579,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1282</v>
       </c>
@@ -14560,7 +14602,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1283</v>
       </c>
@@ -14583,7 +14625,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1285</v>
       </c>
@@ -14606,7 +14648,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1286</v>
       </c>
@@ -14629,7 +14671,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1288</v>
       </c>
@@ -14652,7 +14694,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1289</v>
       </c>
@@ -14675,7 +14717,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1291</v>
       </c>
@@ -14698,7 +14740,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1292</v>
       </c>
@@ -14721,7 +14763,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1294</v>
       </c>
@@ -14744,7 +14786,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1295</v>
       </c>
@@ -14767,7 +14809,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1297</v>
       </c>
@@ -14790,7 +14832,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1298</v>
       </c>
@@ -14813,7 +14855,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1300</v>
       </c>
@@ -14836,7 +14878,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1301</v>
       </c>
@@ -14859,7 +14901,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1303</v>
       </c>
@@ -14882,7 +14924,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1304</v>
       </c>
@@ -14905,7 +14947,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1306</v>
       </c>
@@ -14928,7 +14970,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1307</v>
       </c>
@@ -14951,7 +14993,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1309</v>
       </c>
@@ -14974,7 +15016,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1310</v>
       </c>
@@ -14997,7 +15039,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1312</v>
       </c>
@@ -15020,7 +15062,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1313</v>
       </c>
@@ -15043,7 +15085,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1315</v>
       </c>
@@ -15066,7 +15108,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1316</v>
       </c>
@@ -15089,7 +15131,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1318</v>
       </c>
@@ -15112,7 +15154,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1319</v>
       </c>
@@ -15135,7 +15177,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1321</v>
       </c>
@@ -15158,7 +15200,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1322</v>
       </c>
@@ -15181,7 +15223,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1324</v>
       </c>
@@ -15204,7 +15246,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1325</v>
       </c>
@@ -15227,7 +15269,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1327</v>
       </c>
@@ -15250,7 +15292,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1328</v>
       </c>
@@ -15273,7 +15315,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1330</v>
       </c>
@@ -15302,34 +15344,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>983</v>
       </c>
@@ -15385,7 +15429,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -15441,7 +15485,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -15491,7 +15535,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1014</v>
       </c>
@@ -15547,12 +15591,12 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1019</v>
       </c>
@@ -15561,6 +15605,9 @@
       </c>
       <c r="G6" t="s">
         <v>1377</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1493</v>
       </c>
     </row>
   </sheetData>
@@ -15569,76 +15616,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -15820,7 +15864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -16002,7 +16046,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -16163,7 +16207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -16345,12 +16389,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -16367,7 +16411,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -16384,7 +16428,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -16401,7 +16445,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -16418,7 +16462,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -16435,7 +16479,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -16452,7 +16496,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>230</v>
       </c>
@@ -16469,7 +16513,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>233</v>
       </c>
@@ -16486,7 +16530,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>236</v>
       </c>
@@ -16503,7 +16547,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -16520,7 +16564,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -16537,7 +16581,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -16554,7 +16598,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -16571,7 +16615,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -16588,7 +16632,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -16605,7 +16649,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>257</v>
       </c>
@@ -16622,7 +16666,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>260</v>
       </c>
@@ -16639,7 +16683,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -16656,7 +16700,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -16673,7 +16717,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>269</v>
       </c>
@@ -16690,7 +16734,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -16707,7 +16751,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -16724,7 +16768,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -16741,7 +16785,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>281</v>
       </c>
@@ -16758,7 +16802,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -16775,7 +16819,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>287</v>
       </c>
@@ -16792,7 +16836,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -16809,7 +16853,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -16826,7 +16870,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>296</v>
       </c>
@@ -16843,7 +16887,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>299</v>
       </c>
@@ -16860,7 +16904,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>302</v>
       </c>
@@ -16877,7 +16921,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>305</v>
       </c>
@@ -16894,7 +16938,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>308</v>
       </c>
@@ -16911,7 +16955,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -16928,7 +16972,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>314</v>
       </c>
@@ -16945,7 +16989,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -16962,7 +17006,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -16979,7 +17023,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -16996,7 +17040,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>326</v>
       </c>
@@ -17013,7 +17057,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>329</v>
       </c>
@@ -17030,7 +17074,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>332</v>
       </c>
@@ -17047,7 +17091,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -17064,7 +17108,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -17081,7 +17125,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>341</v>
       </c>
@@ -17098,7 +17142,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -17115,7 +17159,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>347</v>
       </c>
@@ -17132,7 +17176,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>350</v>
       </c>
@@ -17149,7 +17193,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>353</v>
       </c>
@@ -17166,7 +17210,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -17183,7 +17227,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>359</v>
       </c>
@@ -17200,7 +17244,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>362</v>
       </c>
@@ -17217,7 +17261,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>365</v>
       </c>
@@ -17234,7 +17278,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -17251,7 +17295,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>371</v>
       </c>
@@ -17268,7 +17312,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>374</v>
       </c>
@@ -17285,7 +17329,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -17302,7 +17346,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>380</v>
       </c>
@@ -17319,7 +17363,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -17336,7 +17380,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>386</v>
       </c>
@@ -17353,7 +17397,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>389</v>
       </c>
@@ -17370,7 +17414,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>392</v>
       </c>
@@ -17387,7 +17431,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -17404,7 +17448,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>398</v>
       </c>
@@ -17421,7 +17465,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>401</v>
       </c>
@@ -17438,7 +17482,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>404</v>
       </c>
@@ -17455,7 +17499,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>407</v>
       </c>
@@ -17472,7 +17516,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>410</v>
       </c>
@@ -17489,7 +17533,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>413</v>
       </c>
@@ -17506,7 +17550,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>416</v>
       </c>
@@ -17523,7 +17567,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>419</v>
       </c>
@@ -17540,7 +17584,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>422</v>
       </c>
@@ -17557,7 +17601,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>425</v>
       </c>
@@ -17574,7 +17618,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>428</v>
       </c>
@@ -17591,7 +17635,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>431</v>
       </c>
@@ -17608,7 +17652,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>434</v>
       </c>
@@ -17625,7 +17669,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>437</v>
       </c>
@@ -17642,7 +17686,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>440</v>
       </c>
@@ -17659,7 +17703,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>443</v>
       </c>
@@ -17676,7 +17720,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -17693,7 +17737,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>449</v>
       </c>
@@ -17710,7 +17754,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>452</v>
       </c>
@@ -17727,7 +17771,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>455</v>
       </c>
@@ -17744,7 +17788,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>458</v>
       </c>
@@ -17761,7 +17805,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>461</v>
       </c>
@@ -17778,7 +17822,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -17795,7 +17839,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>467</v>
       </c>
@@ -17812,7 +17856,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>470</v>
       </c>
@@ -17829,7 +17873,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>473</v>
       </c>
@@ -17846,7 +17890,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>476</v>
       </c>
@@ -17863,7 +17907,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>479</v>
       </c>
@@ -17880,7 +17924,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>482</v>
       </c>
@@ -17897,7 +17941,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>485</v>
       </c>
@@ -17914,7 +17958,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>488</v>
       </c>
@@ -17931,7 +17975,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>491</v>
       </c>
@@ -17948,7 +17992,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>494</v>
       </c>
@@ -17965,7 +18009,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>497</v>
       </c>
@@ -17982,7 +18026,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>500</v>
       </c>
@@ -17999,7 +18043,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>503</v>
       </c>
@@ -18016,7 +18060,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>506</v>
       </c>
@@ -18033,7 +18077,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>509</v>
       </c>
@@ -18050,7 +18094,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>512</v>
       </c>
@@ -18067,7 +18111,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>515</v>
       </c>
@@ -18084,7 +18128,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>518</v>
       </c>
@@ -18101,7 +18145,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>521</v>
       </c>
